--- a/천세륜_테스트_1.2/MyPageTC_1.2.xlsx
+++ b/천세륜_테스트_1.2/MyPageTC_1.2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\User_Data\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2021 capstone design\Test\천세륜_테스트_1.2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5EABAC2-962F-4B5E-A36A-4957DE916FD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D080B711-6F6B-4AE8-92AD-D0FBD9BCAE41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{A49CD124-545E-4862-B52D-1D10FBA9DB7F}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{A49CD124-545E-4862-B52D-1D10FBA9DB7F}"/>
   </bookViews>
   <sheets>
     <sheet name="서식" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,9 @@
     <sheet name="최근검색기업" sheetId="5" r:id="rId4"/>
     <sheet name="내가 쓴 글" sheetId="6" r:id="rId5"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">최근검색기업!$A$1:$L$22</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1428,7 +1431,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J16" authorId="0" shapeId="0" xr:uid="{2DE2D8DE-DF4D-4F64-97F9-CB24191626E1}">
+    <comment ref="J17" authorId="0" shapeId="0" xr:uid="{2DE2D8DE-DF4D-4F64-97F9-CB24191626E1}">
       <text>
         <r>
           <rPr>
@@ -3480,7 +3483,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J16" authorId="0" shapeId="0" xr:uid="{D8C1E863-D298-4813-8049-F7CBAC481580}">
+    <comment ref="J17" authorId="0" shapeId="0" xr:uid="{D8C1E863-D298-4813-8049-F7CBAC481580}">
       <text>
         <r>
           <rPr>
@@ -5130,7 +5133,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="102">
   <si>
     <t>테스트 케이스 ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -5607,6 +5610,15 @@
   <si>
     <t>인증코드가 다르다는
 경고창이 나온다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수정
+시나리오</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">통과 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5831,7 +5843,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5898,28 +5910,16 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
@@ -5931,25 +5931,52 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -5958,28 +5985,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
@@ -5989,6 +6010,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -6316,107 +6346,107 @@
       <selection activeCell="K6" sqref="K6:L6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="13.625" customWidth="1"/>
-    <col min="5" max="5" width="9.875" customWidth="1"/>
-    <col min="6" max="6" width="14.875" customWidth="1"/>
-    <col min="9" max="10" width="8.625" customWidth="1"/>
+    <col min="3" max="3" width="13.58203125" customWidth="1"/>
+    <col min="5" max="5" width="9.83203125" customWidth="1"/>
+    <col min="6" max="6" width="14.83203125" customWidth="1"/>
+    <col min="9" max="10" width="8.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22"/>
+      <c r="B1" s="29"/>
       <c r="C1" s="1"/>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="22" t="s">
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A2" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="22"/>
+      <c r="B2" s="29"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="22" t="s">
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="22"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="22" t="s">
+      <c r="J2" s="29"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A4" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="26" t="s">
+      <c r="B4" s="29"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A6" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="26"/>
+      <c r="B6" s="31"/>
       <c r="C6" s="2"/>
-      <c r="D6" s="28" t="s">
+      <c r="D6" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="29"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="31"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="27"/>
       <c r="H6" s="3"/>
-      <c r="I6" s="26" t="s">
+      <c r="I6" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="J6" s="26"/>
-      <c r="K6" s="27"/>
-      <c r="L6" s="27"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J6" s="31"/>
+      <c r="K6" s="34"/>
+      <c r="L6" s="34"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="H7" s="4"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
       <c r="G8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H8" s="26" t="s">
+      <c r="H8" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="26"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I8" s="31"/>
+      <c r="J8" s="31"/>
+      <c r="K8" s="31"/>
+      <c r="L8" s="31"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A9" s="6">
         <v>1</v>
       </c>
@@ -6432,7 +6462,7 @@
       <c r="K9" s="25"/>
       <c r="L9" s="25"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A10" s="6">
         <v>2</v>
       </c>
@@ -6448,7 +6478,7 @@
       <c r="K10" s="25"/>
       <c r="L10" s="25"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A11" s="6">
         <v>3</v>
       </c>
@@ -6464,7 +6494,7 @@
       <c r="K11" s="25"/>
       <c r="L11" s="25"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A12" s="6">
         <v>4</v>
       </c>
@@ -6480,7 +6510,7 @@
       <c r="K12" s="25"/>
       <c r="L12" s="25"/>
     </row>
-    <row r="14" spans="1:12" ht="33" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" ht="34" x14ac:dyDescent="0.45">
       <c r="A14" s="7" t="s">
         <v>12</v>
       </c>
@@ -6496,38 +6526,38 @@
       </c>
       <c r="K14" s="9"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A16" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="32" t="s">
+      <c r="B16" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="32"/>
-      <c r="D16" s="32" t="s">
+      <c r="C16" s="28"/>
+      <c r="D16" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="E16" s="32"/>
+      <c r="E16" s="28"/>
       <c r="F16" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G16" s="32" t="s">
+      <c r="G16" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="H16" s="32"/>
-      <c r="I16" s="32"/>
-      <c r="J16" s="32" t="s">
+      <c r="H16" s="28"/>
+      <c r="I16" s="28"/>
+      <c r="J16" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="K16" s="32"/>
-      <c r="L16" s="32"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K16" s="28"/>
+      <c r="L16" s="28"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A17" s="6"/>
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="31"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="27"/>
       <c r="F17" s="2"/>
       <c r="G17" s="25"/>
       <c r="H17" s="25"/>
@@ -6536,12 +6566,12 @@
       <c r="K17" s="25"/>
       <c r="L17" s="25"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A18" s="6"/>
       <c r="B18" s="25"/>
       <c r="C18" s="25"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="31"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="27"/>
       <c r="F18" s="2"/>
       <c r="G18" s="25"/>
       <c r="H18" s="25"/>
@@ -6552,6 +6582,29 @@
     </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="G1:L1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="H9:L9"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="H12:L12"/>
     <mergeCell ref="B18:C18"/>
@@ -6567,29 +6620,6 @@
     <mergeCell ref="D16:E16"/>
     <mergeCell ref="G16:I16"/>
     <mergeCell ref="J16:L16"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="H10:L10"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="H9:L9"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="G1:L1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:L2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6603,131 +6633,131 @@
   <sheetPr>
     <tabColor rgb="FFFFFFCC"/>
   </sheetPr>
-  <dimension ref="A1:L28"/>
+  <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6:L6"/>
+    <sheetView topLeftCell="C22" workbookViewId="0">
+      <selection activeCell="L13" sqref="H12:L13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="13.625" customWidth="1"/>
-    <col min="5" max="5" width="9.875" customWidth="1"/>
-    <col min="6" max="6" width="14.875" customWidth="1"/>
-    <col min="9" max="10" width="8.625" customWidth="1"/>
+    <col min="3" max="3" width="13.58203125" customWidth="1"/>
+    <col min="5" max="5" width="9.83203125" customWidth="1"/>
+    <col min="6" max="6" width="14.83203125" customWidth="1"/>
+    <col min="9" max="10" width="8.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22"/>
+      <c r="B1" s="29"/>
       <c r="C1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="23" t="s">
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="22" t="s">
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A2" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="22"/>
+      <c r="B2" s="29"/>
       <c r="C2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="23" t="s">
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="23"/>
-      <c r="I2" s="22" t="s">
+      <c r="H2" s="30"/>
+      <c r="I2" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="22"/>
-      <c r="K2" s="33">
+      <c r="J2" s="29"/>
+      <c r="K2" s="49">
         <v>1.2</v>
       </c>
-      <c r="L2" s="33"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="22" t="s">
+      <c r="L2" s="49"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A4" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="23" t="s">
+      <c r="B4" s="29"/>
+      <c r="C4" s="30" t="s">
         <v>90</v>
       </c>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="26" t="s">
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A6" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="26"/>
+      <c r="B6" s="31"/>
       <c r="C6" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="D6" s="28" t="s">
+      <c r="D6" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="29"/>
-      <c r="F6" s="30" t="s">
+      <c r="E6" s="33"/>
+      <c r="F6" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="G6" s="31"/>
+      <c r="G6" s="27"/>
       <c r="H6" s="3"/>
-      <c r="I6" s="26" t="s">
+      <c r="I6" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="J6" s="26"/>
-      <c r="K6" s="27" t="s">
+      <c r="J6" s="31"/>
+      <c r="K6" s="34" t="s">
         <v>98</v>
       </c>
-      <c r="L6" s="27"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L6" s="34"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="H7" s="4"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
       <c r="G8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H8" s="26" t="s">
+      <c r="H8" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="26"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I8" s="31"/>
+      <c r="J8" s="31"/>
+      <c r="K8" s="31"/>
+      <c r="L8" s="31"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A9" s="6">
         <v>1</v>
       </c>
@@ -6747,7 +6777,7 @@
       <c r="K9" s="25"/>
       <c r="L9" s="25"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A10" s="6">
         <v>2</v>
       </c>
@@ -6767,7 +6797,7 @@
       <c r="K10" s="25"/>
       <c r="L10" s="25"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A11" s="6">
         <v>3</v>
       </c>
@@ -6783,7 +6813,7 @@
       <c r="K11" s="25"/>
       <c r="L11" s="25"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A12" s="6">
         <v>4</v>
       </c>
@@ -6799,7 +6829,7 @@
       <c r="K12" s="25"/>
       <c r="L12" s="25"/>
     </row>
-    <row r="14" spans="1:12" ht="33" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" ht="34" x14ac:dyDescent="0.45">
       <c r="A14" s="7" t="s">
         <v>12</v>
       </c>
@@ -6817,124 +6847,116 @@
       </c>
       <c r="K14" s="9"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" s="5" t="s">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A15" s="57"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="24"/>
+      <c r="J15" s="56"/>
+      <c r="K15" s="58"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A17" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="32" t="s">
+      <c r="B17" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="32"/>
-      <c r="D16" s="32" t="s">
+      <c r="C17" s="28"/>
+      <c r="D17" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="E16" s="32"/>
-      <c r="F16" s="5" t="s">
+      <c r="E17" s="28"/>
+      <c r="F17" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G16" s="32" t="s">
+      <c r="G17" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="H16" s="32"/>
-      <c r="I16" s="32"/>
-      <c r="J16" s="32" t="s">
+      <c r="H17" s="28"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="K16" s="32"/>
-      <c r="L16" s="32"/>
-    </row>
-    <row r="17" spans="1:12" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="10">
+      <c r="K17" s="28"/>
+      <c r="L17" s="28"/>
+    </row>
+    <row r="18" spans="1:12" ht="51" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="10">
         <v>1</v>
       </c>
-      <c r="B17" s="34" t="s">
+      <c r="B18" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="35"/>
-      <c r="D17" s="36" t="s">
+      <c r="C18" s="48"/>
+      <c r="D18" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="E17" s="36"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="36"/>
-      <c r="J17" s="36"/>
-      <c r="K17" s="36"/>
-      <c r="L17" s="36"/>
-    </row>
-    <row r="18" spans="1:12" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="10">
+      <c r="E18" s="37"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="37"/>
+      <c r="J18" s="37"/>
+      <c r="K18" s="37"/>
+      <c r="L18" s="37"/>
+    </row>
+    <row r="19" spans="1:12" ht="36.65" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="10">
         <v>2</v>
       </c>
-      <c r="B18" s="37" t="s">
+      <c r="B19" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="36"/>
-      <c r="D18" s="38" t="s">
+      <c r="C19" s="37"/>
+      <c r="D19" s="38" t="s">
         <v>31</v>
-      </c>
-      <c r="E18" s="39"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="36"/>
-      <c r="I18" s="36"/>
-      <c r="J18" s="36"/>
-      <c r="K18" s="36"/>
-      <c r="L18" s="36"/>
-    </row>
-    <row r="19" spans="1:12" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="10">
-        <v>3</v>
-      </c>
-      <c r="B19" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="C19" s="36"/>
-      <c r="D19" s="38" t="s">
-        <v>33</v>
       </c>
       <c r="E19" s="39"/>
       <c r="F19" s="9"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="36"/>
-      <c r="I19" s="36"/>
-      <c r="J19" s="36"/>
-      <c r="K19" s="36"/>
-      <c r="L19" s="36"/>
-    </row>
-    <row r="20" spans="1:12" ht="54.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="11" t="s">
+      <c r="G19" s="37"/>
+      <c r="H19" s="37"/>
+      <c r="I19" s="37"/>
+      <c r="J19" s="37"/>
+      <c r="K19" s="37"/>
+      <c r="L19" s="37"/>
+    </row>
+    <row r="20" spans="1:12" ht="66.650000000000006" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="10">
+        <v>3</v>
+      </c>
+      <c r="B20" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="37"/>
+      <c r="D20" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="E20" s="39"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="37"/>
+      <c r="I20" s="37"/>
+      <c r="J20" s="37"/>
+      <c r="K20" s="37"/>
+      <c r="L20" s="37"/>
+    </row>
+    <row r="21" spans="1:12" ht="54.65" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="40" t="s">
+      <c r="B21" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="25"/>
-      <c r="D20" s="41" t="s">
+      <c r="C21" s="25"/>
+      <c r="D21" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="E20" s="31"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="25"/>
-      <c r="I20" s="25"/>
-      <c r="J20" s="25"/>
-      <c r="K20" s="25"/>
-      <c r="L20" s="25"/>
-    </row>
-    <row r="21" spans="1:12" ht="71.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="B21" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="C21" s="25"/>
-      <c r="D21" s="41" t="s">
-        <v>40</v>
-      </c>
-      <c r="E21" s="31"/>
+      <c r="E21" s="27"/>
       <c r="F21" s="2"/>
       <c r="G21" s="25"/>
       <c r="H21" s="25"/>
@@ -6943,18 +6965,18 @@
       <c r="K21" s="25"/>
       <c r="L21" s="25"/>
     </row>
-    <row r="22" spans="1:12" ht="86.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" ht="71.150000000000006" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="B22" s="40" t="s">
-        <v>41</v>
+        <v>35</v>
+      </c>
+      <c r="B22" s="45" t="s">
+        <v>39</v>
       </c>
       <c r="C22" s="25"/>
-      <c r="D22" s="41" t="s">
-        <v>42</v>
-      </c>
-      <c r="E22" s="31"/>
+      <c r="D22" s="46" t="s">
+        <v>40</v>
+      </c>
+      <c r="E22" s="27"/>
       <c r="F22" s="2"/>
       <c r="G22" s="25"/>
       <c r="H22" s="25"/>
@@ -6963,90 +6985,96 @@
       <c r="K22" s="25"/>
       <c r="L22" s="25"/>
     </row>
-    <row r="23" spans="1:12" ht="86.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="19" t="s">
+    <row r="23" spans="1:12" ht="86.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" s="25"/>
+      <c r="D23" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="E23" s="27"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="25"/>
+      <c r="I23" s="25"/>
+      <c r="J23" s="25"/>
+      <c r="K23" s="25"/>
+      <c r="L23" s="25"/>
+    </row>
+    <row r="24" spans="1:12" ht="86.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="B23" s="42" t="s">
+      <c r="B24" s="40" t="s">
         <v>86</v>
       </c>
-      <c r="C23" s="43"/>
-      <c r="D23" s="42" t="s">
+      <c r="C24" s="41"/>
+      <c r="D24" s="40" t="s">
         <v>87</v>
       </c>
-      <c r="E23" s="43"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="42" t="s">
+      <c r="E24" s="41"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="40" t="s">
         <v>99</v>
       </c>
-      <c r="H23" s="45"/>
-      <c r="I23" s="46"/>
-      <c r="J23" s="44" t="s">
+      <c r="H24" s="42"/>
+      <c r="I24" s="43"/>
+      <c r="J24" s="44" t="s">
         <v>97</v>
       </c>
-      <c r="K23" s="45"/>
-      <c r="L23" s="46"/>
-    </row>
-    <row r="24" spans="1:12" ht="105.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="12" t="s">
+      <c r="K24" s="42"/>
+      <c r="L24" s="43"/>
+    </row>
+    <row r="25" spans="1:12" ht="106" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A25" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="B24" s="37" t="s">
+      <c r="B25" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="C24" s="36"/>
-      <c r="D24" s="38" t="s">
+      <c r="C25" s="37"/>
+      <c r="D25" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="E24" s="39"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="36"/>
-      <c r="H24" s="36"/>
-      <c r="I24" s="36"/>
-      <c r="J24" s="36"/>
-      <c r="K24" s="36"/>
-      <c r="L24" s="36"/>
-    </row>
-    <row r="25" spans="1:12" ht="67.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="10">
+      <c r="E25" s="39"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="37"/>
+      <c r="H25" s="37"/>
+      <c r="I25" s="37"/>
+      <c r="J25" s="37"/>
+      <c r="K25" s="37"/>
+      <c r="L25" s="37"/>
+    </row>
+    <row r="26" spans="1:12" ht="67.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A26" s="10">
         <v>5</v>
       </c>
-      <c r="B25" s="37" t="s">
+      <c r="B26" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="C25" s="36"/>
-      <c r="D25" s="38" t="s">
+      <c r="C26" s="37"/>
+      <c r="D26" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="E25" s="39"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="36"/>
-      <c r="H25" s="36"/>
-      <c r="I25" s="36"/>
-      <c r="J25" s="36"/>
-      <c r="K25" s="36"/>
-      <c r="L25" s="36"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A26" s="6"/>
-      <c r="B26" s="25"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="30"/>
-      <c r="E26" s="31"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="25"/>
-      <c r="I26" s="25"/>
-      <c r="J26" s="25"/>
-      <c r="K26" s="25"/>
-      <c r="L26" s="25"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="E26" s="39"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="37"/>
+      <c r="H26" s="37"/>
+      <c r="I26" s="37"/>
+      <c r="J26" s="37"/>
+      <c r="K26" s="37"/>
+      <c r="L26" s="37"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A27" s="6"/>
       <c r="B27" s="25"/>
       <c r="C27" s="25"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="31"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="27"/>
       <c r="F27" s="2"/>
       <c r="G27" s="25"/>
       <c r="H27" s="25"/>
@@ -7055,12 +7083,12 @@
       <c r="K27" s="25"/>
       <c r="L27" s="25"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A28" s="6"/>
       <c r="B28" s="25"/>
       <c r="C28" s="25"/>
-      <c r="D28" s="30"/>
-      <c r="E28" s="31"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="27"/>
       <c r="F28" s="2"/>
       <c r="G28" s="25"/>
       <c r="H28" s="25"/>
@@ -7069,32 +7097,64 @@
       <c r="K28" s="25"/>
       <c r="L28" s="25"/>
     </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A29" s="6"/>
+      <c r="B29" s="25"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="25"/>
+      <c r="I29" s="25"/>
+      <c r="J29" s="25"/>
+      <c r="K29" s="25"/>
+      <c r="L29" s="25"/>
+    </row>
   </sheetData>
   <mergeCells count="78">
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:L28"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:L27"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="G1:L1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="H9:L9"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:L20"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="D21:E21"/>
     <mergeCell ref="G21:I21"/>
@@ -7103,14 +7163,482 @@
     <mergeCell ref="D22:E22"/>
     <mergeCell ref="G22:I22"/>
     <mergeCell ref="J22:L22"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:L28"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1CF561A-7F30-4723-B9E9-1F3460B70515}">
+  <dimension ref="A1:L27"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23:E23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="3" max="3" width="13.58203125" customWidth="1"/>
+    <col min="5" max="5" width="9.83203125" customWidth="1"/>
+    <col min="6" max="6" width="14.83203125" customWidth="1"/>
+    <col min="9" max="10" width="8.58203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A1" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="29"/>
+      <c r="C1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A2" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="29"/>
+      <c r="C2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="30"/>
+      <c r="I2" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" s="29"/>
+      <c r="K2" s="49">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L2" s="49"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A4" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="29"/>
+      <c r="C4" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A6" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="31"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="33"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="J6" s="31"/>
+      <c r="K6" s="34"/>
+      <c r="L6" s="34"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="H7" s="4"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="G8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="I8" s="31"/>
+      <c r="J8" s="31"/>
+      <c r="K8" s="31"/>
+      <c r="L8" s="31"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A9" s="6">
+        <v>1</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="G9" s="6">
+        <v>1</v>
+      </c>
+      <c r="H9" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="25"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A10" s="6">
+        <v>2</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="G10" s="6">
+        <v>2</v>
+      </c>
+      <c r="H10" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="25"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A11" s="6">
+        <v>3</v>
+      </c>
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="G11" s="6">
+        <v>3</v>
+      </c>
+      <c r="H11" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="25"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A12" s="6">
+        <v>4</v>
+      </c>
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="G12" s="6">
+        <v>4</v>
+      </c>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
+    </row>
+    <row r="14" spans="1:12" ht="34" x14ac:dyDescent="0.45">
+      <c r="A14" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
+      <c r="J14" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="K14" s="9"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A16" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="28"/>
+      <c r="D16" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" s="28"/>
+      <c r="F16" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G16" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="H16" s="28"/>
+      <c r="I16" s="28"/>
+      <c r="J16" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="K16" s="28"/>
+      <c r="L16" s="28"/>
+    </row>
+    <row r="17" spans="1:12" ht="48.65" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="10">
+        <v>1</v>
+      </c>
+      <c r="B17" s="47" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" s="48"/>
+      <c r="D17" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" s="37"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="37"/>
+      <c r="I17" s="37"/>
+      <c r="J17" s="37"/>
+      <c r="K17" s="37"/>
+      <c r="L17" s="37"/>
+    </row>
+    <row r="18" spans="1:12" ht="53.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="10">
+        <v>2</v>
+      </c>
+      <c r="B18" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" s="37"/>
+      <c r="D18" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="E18" s="39"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="37"/>
+      <c r="J18" s="37"/>
+      <c r="K18" s="37"/>
+      <c r="L18" s="37"/>
+    </row>
+    <row r="19" spans="1:12" ht="51.65" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" s="45" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" s="25"/>
+      <c r="D19" s="46" t="s">
+        <v>56</v>
+      </c>
+      <c r="E19" s="27"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="25"/>
+      <c r="K19" s="25"/>
+      <c r="L19" s="25"/>
+    </row>
+    <row r="20" spans="1:12" ht="68.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20" s="51" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" s="52"/>
+      <c r="D20" s="40" t="s">
+        <v>58</v>
+      </c>
+      <c r="E20" s="43"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="52"/>
+      <c r="H20" s="52"/>
+      <c r="I20" s="52"/>
+      <c r="J20" s="52"/>
+      <c r="K20" s="52"/>
+      <c r="L20" s="52"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A21" s="6"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="25"/>
+      <c r="K21" s="25"/>
+      <c r="L21" s="25"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A22" s="6"/>
+      <c r="B22" s="25"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="25"/>
+      <c r="K22" s="25"/>
+      <c r="L22" s="25"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A23" s="6"/>
+      <c r="B23" s="25"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="25"/>
+      <c r="I23" s="25"/>
+      <c r="J23" s="25"/>
+      <c r="K23" s="25"/>
+      <c r="L23" s="25"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A24" s="13"/>
+      <c r="B24" s="50"/>
+      <c r="C24" s="50"/>
+      <c r="D24" s="50"/>
+      <c r="E24" s="50"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="50"/>
+      <c r="H24" s="50"/>
+      <c r="I24" s="50"/>
+      <c r="J24" s="50"/>
+      <c r="K24" s="50"/>
+      <c r="L24" s="50"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A25" s="13"/>
+      <c r="B25" s="50"/>
+      <c r="C25" s="50"/>
+      <c r="D25" s="50"/>
+      <c r="E25" s="50"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="50"/>
+      <c r="H25" s="50"/>
+      <c r="I25" s="50"/>
+      <c r="J25" s="50"/>
+      <c r="K25" s="50"/>
+      <c r="L25" s="50"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A26" s="13"/>
+      <c r="B26" s="50"/>
+      <c r="C26" s="50"/>
+      <c r="D26" s="50"/>
+      <c r="E26" s="50"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="50"/>
+      <c r="H26" s="50"/>
+      <c r="I26" s="50"/>
+      <c r="J26" s="50"/>
+      <c r="K26" s="50"/>
+      <c r="L26" s="50"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A27" s="13"/>
+      <c r="B27" s="50"/>
+      <c r="C27" s="50"/>
+      <c r="D27" s="50"/>
+      <c r="E27" s="50"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="50"/>
+      <c r="H27" s="50"/>
+      <c r="I27" s="50"/>
+      <c r="J27" s="50"/>
+      <c r="K27" s="50"/>
+      <c r="L27" s="50"/>
+    </row>
+  </sheetData>
+  <mergeCells count="74">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="G1:L1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="H9:L9"/>
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="H12:L12"/>
     <mergeCell ref="B10:D10"/>
@@ -7127,6 +7655,1013 @@
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="D16:E16"/>
     <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:L26"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBAD38C0-4174-4B39-B29F-B57922CC55D9}">
+  <sheetPr>
+    <tabColor rgb="FFFFFFCC"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:L29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="P6" sqref="P6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="3" max="3" width="13.58203125" customWidth="1"/>
+    <col min="5" max="5" width="9.83203125" customWidth="1"/>
+    <col min="6" max="6" width="14.83203125" customWidth="1"/>
+    <col min="8" max="8" width="9.33203125" customWidth="1"/>
+    <col min="9" max="10" width="8.58203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A1" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="29"/>
+      <c r="C1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A2" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="29"/>
+      <c r="C2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="30"/>
+      <c r="I2" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" s="29"/>
+      <c r="K2" s="49">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L2" s="49"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A4" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="29"/>
+      <c r="C4" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A6" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="31"/>
+      <c r="C6" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D6" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="33"/>
+      <c r="F6" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="G6" s="27"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="J6" s="31"/>
+      <c r="K6" s="34" t="s">
+        <v>98</v>
+      </c>
+      <c r="L6" s="34"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="H7" s="4"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="G8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="I8" s="31"/>
+      <c r="J8" s="31"/>
+      <c r="K8" s="31"/>
+      <c r="L8" s="31"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A9" s="6">
+        <v>1</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="G9" s="6">
+        <v>1</v>
+      </c>
+      <c r="H9" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="25"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A10" s="6">
+        <v>2</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="G10" s="6">
+        <v>2</v>
+      </c>
+      <c r="H10" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="25"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A11" s="6">
+        <v>3</v>
+      </c>
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="G11" s="6">
+        <v>3</v>
+      </c>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="25"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A12" s="6">
+        <v>4</v>
+      </c>
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="G12" s="6">
+        <v>4</v>
+      </c>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
+    </row>
+    <row r="14" spans="1:12" ht="34" x14ac:dyDescent="0.45">
+      <c r="A14" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
+      <c r="J14" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="K14" s="9"/>
+    </row>
+    <row r="15" spans="1:12" ht="34" x14ac:dyDescent="0.45">
+      <c r="A15" s="57"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="24"/>
+      <c r="J15" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="K15" s="23"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A17" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="28"/>
+      <c r="F17" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="H17" s="28"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="K17" s="28"/>
+      <c r="L17" s="28"/>
+    </row>
+    <row r="18" spans="1:12" ht="51" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="10">
+        <v>1</v>
+      </c>
+      <c r="B18" s="47" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" s="48"/>
+      <c r="D18" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" s="37"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="H18" s="37"/>
+      <c r="I18" s="37"/>
+      <c r="J18" s="37" t="s">
+        <v>101</v>
+      </c>
+      <c r="K18" s="37"/>
+      <c r="L18" s="37"/>
+    </row>
+    <row r="19" spans="1:12" ht="69.650000000000006" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="10">
+        <v>2</v>
+      </c>
+      <c r="B19" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" s="37"/>
+      <c r="D19" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="E19" s="39"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="36" t="s">
+        <v>63</v>
+      </c>
+      <c r="H19" s="37"/>
+      <c r="I19" s="37"/>
+      <c r="J19" s="37" t="s">
+        <v>97</v>
+      </c>
+      <c r="K19" s="37"/>
+      <c r="L19" s="37"/>
+    </row>
+    <row r="20" spans="1:12" ht="53.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="17">
+        <v>3</v>
+      </c>
+      <c r="B20" s="51" t="s">
+        <v>64</v>
+      </c>
+      <c r="C20" s="52"/>
+      <c r="D20" s="40" t="s">
+        <v>89</v>
+      </c>
+      <c r="E20" s="43"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="51" t="s">
+        <v>96</v>
+      </c>
+      <c r="H20" s="52"/>
+      <c r="I20" s="52"/>
+      <c r="J20" s="52" t="s">
+        <v>97</v>
+      </c>
+      <c r="K20" s="52"/>
+      <c r="L20" s="52"/>
+    </row>
+    <row r="21" spans="1:12" ht="88.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="10">
+        <v>4</v>
+      </c>
+      <c r="B21" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="C21" s="37"/>
+      <c r="D21" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="E21" s="39"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="H21" s="37"/>
+      <c r="I21" s="37"/>
+      <c r="J21" s="37" t="s">
+        <v>97</v>
+      </c>
+      <c r="K21" s="37"/>
+      <c r="L21" s="37"/>
+    </row>
+    <row r="22" spans="1:12" ht="54.65" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="10">
+        <v>5</v>
+      </c>
+      <c r="B22" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="C22" s="37"/>
+      <c r="D22" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="E22" s="39"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="H22" s="37"/>
+      <c r="I22" s="37"/>
+      <c r="J22" s="37" t="s">
+        <v>97</v>
+      </c>
+      <c r="K22" s="37"/>
+      <c r="L22" s="37"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A23" s="6"/>
+      <c r="B23" s="25"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="25"/>
+      <c r="I23" s="25"/>
+      <c r="J23" s="25"/>
+      <c r="K23" s="25"/>
+      <c r="L23" s="25"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A24" s="6"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="25"/>
+      <c r="J24" s="25"/>
+      <c r="K24" s="25"/>
+      <c r="L24" s="25"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A25" s="6"/>
+      <c r="B25" s="25"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="25"/>
+      <c r="I25" s="25"/>
+      <c r="J25" s="25"/>
+      <c r="K25" s="25"/>
+      <c r="L25" s="25"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A26" s="13"/>
+      <c r="B26" s="50"/>
+      <c r="C26" s="50"/>
+      <c r="D26" s="50"/>
+      <c r="E26" s="50"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="50"/>
+      <c r="H26" s="50"/>
+      <c r="I26" s="50"/>
+      <c r="J26" s="50"/>
+      <c r="K26" s="50"/>
+      <c r="L26" s="50"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A27" s="13"/>
+      <c r="B27" s="50"/>
+      <c r="C27" s="50"/>
+      <c r="D27" s="50"/>
+      <c r="E27" s="50"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="50"/>
+      <c r="H27" s="50"/>
+      <c r="I27" s="50"/>
+      <c r="J27" s="50"/>
+      <c r="K27" s="50"/>
+      <c r="L27" s="50"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A28" s="13"/>
+      <c r="B28" s="50"/>
+      <c r="C28" s="50"/>
+      <c r="D28" s="50"/>
+      <c r="E28" s="50"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="50"/>
+      <c r="H28" s="50"/>
+      <c r="I28" s="50"/>
+      <c r="J28" s="50"/>
+      <c r="K28" s="50"/>
+      <c r="L28" s="50"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A29" s="13"/>
+      <c r="B29" s="50"/>
+      <c r="C29" s="50"/>
+      <c r="D29" s="50"/>
+      <c r="E29" s="50"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="50"/>
+      <c r="H29" s="50"/>
+      <c r="I29" s="50"/>
+      <c r="J29" s="50"/>
+      <c r="K29" s="50"/>
+      <c r="L29" s="50"/>
+    </row>
+  </sheetData>
+  <mergeCells count="78">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="G1:L1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="H9:L9"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:L28"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="68" fitToHeight="2" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DFE83F9-FC42-4328-8422-898F4679C75E}">
+  <dimension ref="A1:L25"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="3" max="3" width="13.58203125" customWidth="1"/>
+    <col min="5" max="5" width="9.83203125" customWidth="1"/>
+    <col min="6" max="6" width="14.83203125" customWidth="1"/>
+    <col min="9" max="10" width="8.58203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A1" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="29"/>
+      <c r="C1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A2" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="29"/>
+      <c r="C2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="30"/>
+      <c r="I2" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" s="29"/>
+      <c r="K2" s="49">
+        <v>1</v>
+      </c>
+      <c r="L2" s="49"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A4" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="29"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A6" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="31"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="33"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="J6" s="31"/>
+      <c r="K6" s="34"/>
+      <c r="L6" s="34"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="H7" s="4"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="G8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="I8" s="31"/>
+      <c r="J8" s="31"/>
+      <c r="K8" s="31"/>
+      <c r="L8" s="31"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A9" s="6">
+        <v>1</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="G9" s="6">
+        <v>1</v>
+      </c>
+      <c r="H9" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="25"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A10" s="6">
+        <v>2</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="G10" s="6">
+        <v>2</v>
+      </c>
+      <c r="H10" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="25"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A11" s="6">
+        <v>3</v>
+      </c>
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="G11" s="6">
+        <v>3</v>
+      </c>
+      <c r="H11" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="25"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A12" s="6">
+        <v>4</v>
+      </c>
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="G12" s="6">
+        <v>4</v>
+      </c>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
+    </row>
+    <row r="14" spans="1:12" ht="34" x14ac:dyDescent="0.45">
+      <c r="A14" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
+      <c r="J14" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="K14" s="9"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A16" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="28"/>
+      <c r="D16" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" s="28"/>
+      <c r="F16" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G16" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="H16" s="28"/>
+      <c r="I16" s="28"/>
+      <c r="J16" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="K16" s="28"/>
+      <c r="L16" s="28"/>
+    </row>
+    <row r="17" spans="1:12" ht="51.65" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="10">
+        <v>1</v>
+      </c>
+      <c r="B17" s="47" t="s">
+        <v>76</v>
+      </c>
+      <c r="C17" s="48"/>
+      <c r="D17" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" s="37"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="37"/>
+      <c r="I17" s="37"/>
+      <c r="J17" s="37"/>
+      <c r="K17" s="37"/>
+      <c r="L17" s="37"/>
+    </row>
+    <row r="18" spans="1:12" ht="67.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="10">
+        <v>2</v>
+      </c>
+      <c r="B18" s="36" t="s">
+        <v>77</v>
+      </c>
+      <c r="C18" s="37"/>
+      <c r="D18" s="38" t="s">
+        <v>78</v>
+      </c>
+      <c r="E18" s="39"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="37"/>
+      <c r="J18" s="37"/>
+      <c r="K18" s="37"/>
+      <c r="L18" s="37"/>
+    </row>
+    <row r="19" spans="1:12" ht="50.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" s="45" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" s="25"/>
+      <c r="D19" s="46" t="s">
+        <v>79</v>
+      </c>
+      <c r="E19" s="27"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="25"/>
+      <c r="K19" s="25"/>
+      <c r="L19" s="25"/>
+    </row>
+    <row r="20" spans="1:12" ht="71.150000000000006" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20" s="36" t="s">
+        <v>80</v>
+      </c>
+      <c r="C20" s="37"/>
+      <c r="D20" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="E20" s="39"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="37"/>
+      <c r="I20" s="37"/>
+      <c r="J20" s="37"/>
+      <c r="K20" s="37"/>
+      <c r="L20" s="37"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A21" s="6"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="25"/>
+      <c r="K21" s="25"/>
+      <c r="L21" s="25"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A22" s="6"/>
+      <c r="B22" s="25"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="25"/>
+      <c r="K22" s="25"/>
+      <c r="L22" s="25"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A23" s="15"/>
+      <c r="B23" s="53"/>
+      <c r="C23" s="53"/>
+      <c r="D23" s="54"/>
+      <c r="E23" s="55"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="53"/>
+      <c r="H23" s="53"/>
+      <c r="I23" s="53"/>
+      <c r="J23" s="53"/>
+      <c r="K23" s="53"/>
+      <c r="L23" s="53"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A24" s="13"/>
+      <c r="B24" s="50"/>
+      <c r="C24" s="50"/>
+      <c r="D24" s="50"/>
+      <c r="E24" s="50"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="50"/>
+      <c r="H24" s="50"/>
+      <c r="I24" s="50"/>
+      <c r="J24" s="50"/>
+      <c r="K24" s="50"/>
+      <c r="L24" s="50"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A25" s="13"/>
+      <c r="B25" s="50"/>
+      <c r="C25" s="50"/>
+      <c r="D25" s="50"/>
+      <c r="E25" s="50"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="50"/>
+      <c r="H25" s="50"/>
+      <c r="I25" s="50"/>
+      <c r="J25" s="50"/>
+      <c r="K25" s="50"/>
+      <c r="L25" s="50"/>
+    </row>
+  </sheetData>
+  <mergeCells count="66">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="G1:L1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
     <mergeCell ref="J16:L16"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C4:G4"/>
@@ -7141,476 +8676,6 @@
     <mergeCell ref="H8:L8"/>
     <mergeCell ref="B9:D9"/>
     <mergeCell ref="H9:L9"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="G1:L1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:L2"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1CF561A-7F30-4723-B9E9-1F3460B70515}">
-  <dimension ref="A1:L27"/>
-  <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23:E23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="3" max="3" width="13.625" customWidth="1"/>
-    <col min="5" max="5" width="9.875" customWidth="1"/>
-    <col min="6" max="6" width="14.875" customWidth="1"/>
-    <col min="9" max="10" width="8.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D1" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2" s="23"/>
-      <c r="I2" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="J2" s="22"/>
-      <c r="K2" s="33">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="L2" s="33"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="26"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="29"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="J6" s="26"/>
-      <c r="K6" s="27"/>
-      <c r="L6" s="27"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="H7" s="4"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="G8" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H8" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="26"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="6">
-        <v>1</v>
-      </c>
-      <c r="B9" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="G9" s="6">
-        <v>1</v>
-      </c>
-      <c r="H9" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="I9" s="25"/>
-      <c r="J9" s="25"/>
-      <c r="K9" s="25"/>
-      <c r="L9" s="25"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="6">
-        <v>2</v>
-      </c>
-      <c r="B10" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
-      <c r="G10" s="6">
-        <v>2</v>
-      </c>
-      <c r="H10" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="I10" s="25"/>
-      <c r="J10" s="25"/>
-      <c r="K10" s="25"/>
-      <c r="L10" s="25"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="6">
-        <v>3</v>
-      </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="G11" s="6">
-        <v>3</v>
-      </c>
-      <c r="H11" s="25" t="s">
-        <v>82</v>
-      </c>
-      <c r="I11" s="25"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="25"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="6">
-        <v>4</v>
-      </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="G12" s="6">
-        <v>4</v>
-      </c>
-      <c r="H12" s="25"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="25"/>
-    </row>
-    <row r="14" spans="1:12" ht="33" x14ac:dyDescent="0.3">
-      <c r="A14" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
-      <c r="J14" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="K14" s="9"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" s="32"/>
-      <c r="D16" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="E16" s="32"/>
-      <c r="F16" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="H16" s="32"/>
-      <c r="I16" s="32"/>
-      <c r="J16" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="K16" s="32"/>
-      <c r="L16" s="32"/>
-    </row>
-    <row r="17" spans="1:12" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="10">
-        <v>1</v>
-      </c>
-      <c r="B17" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="C17" s="35"/>
-      <c r="D17" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="E17" s="36"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="36"/>
-      <c r="J17" s="36"/>
-      <c r="K17" s="36"/>
-      <c r="L17" s="36"/>
-    </row>
-    <row r="18" spans="1:12" ht="53.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="10">
-        <v>2</v>
-      </c>
-      <c r="B18" s="37" t="s">
-        <v>51</v>
-      </c>
-      <c r="C18" s="36"/>
-      <c r="D18" s="38" t="s">
-        <v>52</v>
-      </c>
-      <c r="E18" s="39"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="36"/>
-      <c r="I18" s="36"/>
-      <c r="J18" s="36"/>
-      <c r="K18" s="36"/>
-      <c r="L18" s="36"/>
-    </row>
-    <row r="19" spans="1:12" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="B19" s="40" t="s">
-        <v>55</v>
-      </c>
-      <c r="C19" s="25"/>
-      <c r="D19" s="41" t="s">
-        <v>56</v>
-      </c>
-      <c r="E19" s="31"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="25"/>
-      <c r="J19" s="25"/>
-      <c r="K19" s="25"/>
-      <c r="L19" s="25"/>
-    </row>
-    <row r="20" spans="1:12" ht="68.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="B20" s="47" t="s">
-        <v>57</v>
-      </c>
-      <c r="C20" s="48"/>
-      <c r="D20" s="42" t="s">
-        <v>58</v>
-      </c>
-      <c r="E20" s="46"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="48"/>
-      <c r="H20" s="48"/>
-      <c r="I20" s="48"/>
-      <c r="J20" s="48"/>
-      <c r="K20" s="48"/>
-      <c r="L20" s="48"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21" s="6"/>
-      <c r="B21" s="25"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="31"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="25"/>
-      <c r="I21" s="25"/>
-      <c r="J21" s="25"/>
-      <c r="K21" s="25"/>
-      <c r="L21" s="25"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A22" s="6"/>
-      <c r="B22" s="25"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="25"/>
-      <c r="I22" s="25"/>
-      <c r="J22" s="25"/>
-      <c r="K22" s="25"/>
-      <c r="L22" s="25"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A23" s="6"/>
-      <c r="B23" s="25"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="25"/>
-      <c r="I23" s="25"/>
-      <c r="J23" s="25"/>
-      <c r="K23" s="25"/>
-      <c r="L23" s="25"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A24" s="13"/>
-      <c r="B24" s="49"/>
-      <c r="C24" s="49"/>
-      <c r="D24" s="49"/>
-      <c r="E24" s="49"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="49"/>
-      <c r="H24" s="49"/>
-      <c r="I24" s="49"/>
-      <c r="J24" s="49"/>
-      <c r="K24" s="49"/>
-      <c r="L24" s="49"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A25" s="13"/>
-      <c r="B25" s="49"/>
-      <c r="C25" s="49"/>
-      <c r="D25" s="49"/>
-      <c r="E25" s="49"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="49"/>
-      <c r="H25" s="49"/>
-      <c r="I25" s="49"/>
-      <c r="J25" s="49"/>
-      <c r="K25" s="49"/>
-      <c r="L25" s="49"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A26" s="13"/>
-      <c r="B26" s="49"/>
-      <c r="C26" s="49"/>
-      <c r="D26" s="49"/>
-      <c r="E26" s="49"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="49"/>
-      <c r="H26" s="49"/>
-      <c r="I26" s="49"/>
-      <c r="J26" s="49"/>
-      <c r="K26" s="49"/>
-      <c r="L26" s="49"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A27" s="13"/>
-      <c r="B27" s="49"/>
-      <c r="C27" s="49"/>
-      <c r="D27" s="49"/>
-      <c r="E27" s="49"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="49"/>
-      <c r="H27" s="49"/>
-      <c r="I27" s="49"/>
-      <c r="J27" s="49"/>
-      <c r="K27" s="49"/>
-      <c r="L27" s="49"/>
-    </row>
-  </sheetData>
-  <mergeCells count="74">
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:L27"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:L20"/>
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="H12:L12"/>
     <mergeCell ref="B10:D10"/>
@@ -7627,510 +8692,14 @@
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="D16:E16"/>
     <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="H9:L9"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="G1:L1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:L2"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBAD38C0-4174-4B39-B29F-B57922CC55D9}">
-  <sheetPr>
-    <tabColor rgb="FFFFFFCC"/>
-  </sheetPr>
-  <dimension ref="A1:L28"/>
-  <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6:L6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="3" max="3" width="13.625" customWidth="1"/>
-    <col min="5" max="5" width="9.875" customWidth="1"/>
-    <col min="6" max="6" width="14.875" customWidth="1"/>
-    <col min="8" max="8" width="9.375" customWidth="1"/>
-    <col min="9" max="10" width="8.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D1" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2" s="23"/>
-      <c r="I2" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="J2" s="22"/>
-      <c r="K2" s="33">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="L2" s="33"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="26"/>
-      <c r="C6" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D6" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="29"/>
-      <c r="F6" s="30" t="s">
-        <v>93</v>
-      </c>
-      <c r="G6" s="31"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="J6" s="26"/>
-      <c r="K6" s="27" t="s">
-        <v>98</v>
-      </c>
-      <c r="L6" s="27"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="H7" s="4"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="G8" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H8" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="26"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="6">
-        <v>1</v>
-      </c>
-      <c r="B9" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="G9" s="6">
-        <v>1</v>
-      </c>
-      <c r="H9" s="25" t="s">
-        <v>94</v>
-      </c>
-      <c r="I9" s="25"/>
-      <c r="J9" s="25"/>
-      <c r="K9" s="25"/>
-      <c r="L9" s="25"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="6">
-        <v>2</v>
-      </c>
-      <c r="B10" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
-      <c r="G10" s="6">
-        <v>2</v>
-      </c>
-      <c r="H10" s="25" t="s">
-        <v>95</v>
-      </c>
-      <c r="I10" s="25"/>
-      <c r="J10" s="25"/>
-      <c r="K10" s="25"/>
-      <c r="L10" s="25"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="6">
-        <v>3</v>
-      </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="G11" s="6">
-        <v>3</v>
-      </c>
-      <c r="H11" s="25"/>
-      <c r="I11" s="25"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="25"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="6">
-        <v>4</v>
-      </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="G12" s="6">
-        <v>4</v>
-      </c>
-      <c r="H12" s="25"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="25"/>
-    </row>
-    <row r="14" spans="1:12" ht="33" x14ac:dyDescent="0.3">
-      <c r="A14" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
-      <c r="J14" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="K14" s="9"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" s="32"/>
-      <c r="D16" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="E16" s="32"/>
-      <c r="F16" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="H16" s="32"/>
-      <c r="I16" s="32"/>
-      <c r="J16" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="K16" s="32"/>
-      <c r="L16" s="32"/>
-    </row>
-    <row r="17" spans="1:12" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="10">
-        <v>1</v>
-      </c>
-      <c r="B17" s="34" t="s">
-        <v>61</v>
-      </c>
-      <c r="C17" s="35"/>
-      <c r="D17" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="E17" s="36"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="36"/>
-      <c r="J17" s="36"/>
-      <c r="K17" s="36"/>
-      <c r="L17" s="36"/>
-    </row>
-    <row r="18" spans="1:12" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="10">
-        <v>2</v>
-      </c>
-      <c r="B18" s="37" t="s">
-        <v>62</v>
-      </c>
-      <c r="C18" s="36"/>
-      <c r="D18" s="38" t="s">
-        <v>63</v>
-      </c>
-      <c r="E18" s="39"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="36"/>
-      <c r="I18" s="36"/>
-      <c r="J18" s="36"/>
-      <c r="K18" s="36"/>
-      <c r="L18" s="36"/>
-    </row>
-    <row r="19" spans="1:12" ht="53.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="17">
-        <v>3</v>
-      </c>
-      <c r="B19" s="47" t="s">
-        <v>64</v>
-      </c>
-      <c r="C19" s="48"/>
-      <c r="D19" s="42" t="s">
-        <v>89</v>
-      </c>
-      <c r="E19" s="46"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="47" t="s">
-        <v>96</v>
-      </c>
-      <c r="H19" s="48"/>
-      <c r="I19" s="48"/>
-      <c r="J19" s="48" t="s">
-        <v>97</v>
-      </c>
-      <c r="K19" s="48"/>
-      <c r="L19" s="48"/>
-    </row>
-    <row r="20" spans="1:12" ht="88.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="10">
-        <v>4</v>
-      </c>
-      <c r="B20" s="37" t="s">
-        <v>66</v>
-      </c>
-      <c r="C20" s="36"/>
-      <c r="D20" s="38" t="s">
-        <v>67</v>
-      </c>
-      <c r="E20" s="39"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
-      <c r="K20" s="36"/>
-      <c r="L20" s="36"/>
-    </row>
-    <row r="21" spans="1:12" ht="54.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="10">
-        <v>5</v>
-      </c>
-      <c r="B21" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="C21" s="36"/>
-      <c r="D21" s="38" t="s">
-        <v>69</v>
-      </c>
-      <c r="E21" s="39"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="36"/>
-      <c r="H21" s="36"/>
-      <c r="I21" s="36"/>
-      <c r="J21" s="36"/>
-      <c r="K21" s="36"/>
-      <c r="L21" s="36"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A22" s="6"/>
-      <c r="B22" s="25"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="25"/>
-      <c r="I22" s="25"/>
-      <c r="J22" s="25"/>
-      <c r="K22" s="25"/>
-      <c r="L22" s="25"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A23" s="6"/>
-      <c r="B23" s="25"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="25"/>
-      <c r="I23" s="25"/>
-      <c r="J23" s="25"/>
-      <c r="K23" s="25"/>
-      <c r="L23" s="25"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A24" s="6"/>
-      <c r="B24" s="25"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="30"/>
-      <c r="E24" s="31"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="25"/>
-      <c r="I24" s="25"/>
-      <c r="J24" s="25"/>
-      <c r="K24" s="25"/>
-      <c r="L24" s="25"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A25" s="13"/>
-      <c r="B25" s="49"/>
-      <c r="C25" s="49"/>
-      <c r="D25" s="49"/>
-      <c r="E25" s="49"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="49"/>
-      <c r="H25" s="49"/>
-      <c r="I25" s="49"/>
-      <c r="J25" s="49"/>
-      <c r="K25" s="49"/>
-      <c r="L25" s="49"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A26" s="13"/>
-      <c r="B26" s="49"/>
-      <c r="C26" s="49"/>
-      <c r="D26" s="49"/>
-      <c r="E26" s="49"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="49"/>
-      <c r="H26" s="49"/>
-      <c r="I26" s="49"/>
-      <c r="J26" s="49"/>
-      <c r="K26" s="49"/>
-      <c r="L26" s="49"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A27" s="13"/>
-      <c r="B27" s="49"/>
-      <c r="C27" s="49"/>
-      <c r="D27" s="49"/>
-      <c r="E27" s="49"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="49"/>
-      <c r="H27" s="49"/>
-      <c r="I27" s="49"/>
-      <c r="J27" s="49"/>
-      <c r="K27" s="49"/>
-      <c r="L27" s="49"/>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A28" s="13"/>
-      <c r="B28" s="49"/>
-      <c r="C28" s="49"/>
-      <c r="D28" s="49"/>
-      <c r="E28" s="49"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="49"/>
-      <c r="H28" s="49"/>
-      <c r="I28" s="49"/>
-      <c r="J28" s="49"/>
-      <c r="K28" s="49"/>
-      <c r="L28" s="49"/>
-    </row>
-  </sheetData>
-  <mergeCells count="78">
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:L28"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:L27"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:L20"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="D21:E21"/>
     <mergeCell ref="G21:I21"/>
@@ -8139,448 +8708,6 @@
     <mergeCell ref="D22:E22"/>
     <mergeCell ref="G22:I22"/>
     <mergeCell ref="J22:L22"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="H10:L10"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="B14:H14"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="H9:L9"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="G1:L1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:L2"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DFE83F9-FC42-4328-8422-898F4679C75E}">
-  <dimension ref="A1:L25"/>
-  <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="3" max="3" width="13.625" customWidth="1"/>
-    <col min="5" max="5" width="9.875" customWidth="1"/>
-    <col min="6" max="6" width="14.875" customWidth="1"/>
-    <col min="9" max="10" width="8.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D1" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2" s="23"/>
-      <c r="I2" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="J2" s="22"/>
-      <c r="K2" s="33">
-        <v>1</v>
-      </c>
-      <c r="L2" s="33"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="26"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="29"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="J6" s="26"/>
-      <c r="K6" s="27"/>
-      <c r="L6" s="27"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="H7" s="4"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="G8" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H8" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="26"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="6">
-        <v>1</v>
-      </c>
-      <c r="B9" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="G9" s="6">
-        <v>1</v>
-      </c>
-      <c r="H9" s="25" t="s">
-        <v>73</v>
-      </c>
-      <c r="I9" s="25"/>
-      <c r="J9" s="25"/>
-      <c r="K9" s="25"/>
-      <c r="L9" s="25"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="6">
-        <v>2</v>
-      </c>
-      <c r="B10" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
-      <c r="G10" s="6">
-        <v>2</v>
-      </c>
-      <c r="H10" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="I10" s="25"/>
-      <c r="J10" s="25"/>
-      <c r="K10" s="25"/>
-      <c r="L10" s="25"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="6">
-        <v>3</v>
-      </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="G11" s="6">
-        <v>3</v>
-      </c>
-      <c r="H11" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="I11" s="25"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="25"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="6">
-        <v>4</v>
-      </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="G12" s="6">
-        <v>4</v>
-      </c>
-      <c r="H12" s="25"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="25"/>
-    </row>
-    <row r="14" spans="1:12" ht="33" x14ac:dyDescent="0.3">
-      <c r="A14" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
-      <c r="J14" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="K14" s="9"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" s="32"/>
-      <c r="D16" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="E16" s="32"/>
-      <c r="F16" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="H16" s="32"/>
-      <c r="I16" s="32"/>
-      <c r="J16" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="K16" s="32"/>
-      <c r="L16" s="32"/>
-    </row>
-    <row r="17" spans="1:12" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="10">
-        <v>1</v>
-      </c>
-      <c r="B17" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="C17" s="35"/>
-      <c r="D17" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="E17" s="36"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="36"/>
-      <c r="J17" s="36"/>
-      <c r="K17" s="36"/>
-      <c r="L17" s="36"/>
-    </row>
-    <row r="18" spans="1:12" ht="67.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="10">
-        <v>2</v>
-      </c>
-      <c r="B18" s="37" t="s">
-        <v>77</v>
-      </c>
-      <c r="C18" s="36"/>
-      <c r="D18" s="38" t="s">
-        <v>78</v>
-      </c>
-      <c r="E18" s="39"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="36"/>
-      <c r="I18" s="36"/>
-      <c r="J18" s="36"/>
-      <c r="K18" s="36"/>
-      <c r="L18" s="36"/>
-    </row>
-    <row r="19" spans="1:12" ht="50.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="B19" s="40" t="s">
-        <v>55</v>
-      </c>
-      <c r="C19" s="25"/>
-      <c r="D19" s="41" t="s">
-        <v>79</v>
-      </c>
-      <c r="E19" s="31"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="25"/>
-      <c r="J19" s="25"/>
-      <c r="K19" s="25"/>
-      <c r="L19" s="25"/>
-    </row>
-    <row r="20" spans="1:12" ht="71.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="B20" s="37" t="s">
-        <v>80</v>
-      </c>
-      <c r="C20" s="36"/>
-      <c r="D20" s="38" t="s">
-        <v>81</v>
-      </c>
-      <c r="E20" s="39"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
-      <c r="K20" s="36"/>
-      <c r="L20" s="36"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21" s="6"/>
-      <c r="B21" s="25"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="31"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="25"/>
-      <c r="I21" s="25"/>
-      <c r="J21" s="25"/>
-      <c r="K21" s="25"/>
-      <c r="L21" s="25"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A22" s="6"/>
-      <c r="B22" s="25"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="25"/>
-      <c r="I22" s="25"/>
-      <c r="J22" s="25"/>
-      <c r="K22" s="25"/>
-      <c r="L22" s="25"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A23" s="15"/>
-      <c r="B23" s="50"/>
-      <c r="C23" s="50"/>
-      <c r="D23" s="51"/>
-      <c r="E23" s="52"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="50"/>
-      <c r="H23" s="50"/>
-      <c r="I23" s="50"/>
-      <c r="J23" s="50"/>
-      <c r="K23" s="50"/>
-      <c r="L23" s="50"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A24" s="13"/>
-      <c r="B24" s="49"/>
-      <c r="C24" s="49"/>
-      <c r="D24" s="49"/>
-      <c r="E24" s="49"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="49"/>
-      <c r="H24" s="49"/>
-      <c r="I24" s="49"/>
-      <c r="J24" s="49"/>
-      <c r="K24" s="49"/>
-      <c r="L24" s="49"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A25" s="13"/>
-      <c r="B25" s="49"/>
-      <c r="C25" s="49"/>
-      <c r="D25" s="49"/>
-      <c r="E25" s="49"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="49"/>
-      <c r="H25" s="49"/>
-      <c r="I25" s="49"/>
-      <c r="J25" s="49"/>
-      <c r="K25" s="49"/>
-      <c r="L25" s="49"/>
-    </row>
-  </sheetData>
-  <mergeCells count="66">
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="D25:E25"/>
     <mergeCell ref="G25:I25"/>
@@ -8593,60 +8720,6 @@
     <mergeCell ref="D24:E24"/>
     <mergeCell ref="G24:I24"/>
     <mergeCell ref="J24:L24"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="H10:L10"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="B14:H14"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="H9:L9"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="G1:L1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:L2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
